--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2335467.591865101</v>
+        <v>-2339033.093738651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14793933.10759967</v>
+        <v>14790393.23125716</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>140.4971414538682</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>90.75876639954485</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -795,16 +795,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632655</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>210.921910922796</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6790767757687</v>
+        <v>241.5040090965261</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,10 +950,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>50.58952762433649</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.7631369062126</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.70793462069497</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968097</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>274.7115021201574</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>235.244724703432</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>244.7691279384495</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>5.66230845704267</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>104.8549100614898</v>
+        <v>183.7299540235651</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1433,7 +1433,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.69798496361224</v>
+        <v>92.37543246370376</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,7 +1591,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>81.09616706593751</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>120.096196884257</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>170.9696715739331</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>135.9028230020666</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059226</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,7 +2327,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412925</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
         <v>236.9290753658111</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978639</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.129079616772</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="C2" t="n">
-        <v>854.9535781197022</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634772</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475495</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475495</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>259.7298875736949</v>
       </c>
       <c r="L2" t="n">
-        <v>188.145432303583</v>
+        <v>259.7298875736949</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>773.3325661833828</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>1895.253119603586</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023269</v>
+        <v>1639.500390038185</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023269</v>
+        <v>1297.393580741703</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023269</v>
+        <v>926.3945457099908</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.114534407567</v>
+        <v>926.3945457099908</v>
       </c>
       <c r="Y2" t="n">
-        <v>1648.623825328169</v>
+        <v>926.3945457099908</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>752.5718134969703</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>601.9175830570625</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>471.8286156785429</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L3" t="n">
-        <v>640.1767275127957</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M3" t="n">
-        <v>996.537724456367</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100524</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1093.67522558792</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>904.3681479379317</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>904.3681479379317</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
       <c r="C4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
       <c r="D4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
       <c r="E4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
       <c r="F4" t="n">
-        <v>242.1279834692075</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>508.1073286483833</v>
+        <v>463.2877739342804</v>
       </c>
       <c r="V4" t="n">
-        <v>242.1279834692075</v>
+        <v>463.2877739342804</v>
       </c>
       <c r="W4" t="n">
-        <v>242.1279834692075</v>
+        <v>463.2877739342804</v>
       </c>
       <c r="X4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
       <c r="Y4" t="n">
-        <v>242.1279834692075</v>
+        <v>229.2074517172635</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.0555701794214</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="C5" t="n">
-        <v>468.0555701794214</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="D5" t="n">
-        <v>468.0555701794214</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="E5" t="n">
-        <v>65.4720452959659</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634772</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>135.6402479253942</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253942</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253942</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958335</v>
+        <v>1634.047647363513</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661854</v>
+        <v>1634.047647363513</v>
       </c>
       <c r="W5" t="n">
-        <v>777.9173246301411</v>
+        <v>1263.048612331801</v>
       </c>
       <c r="X5" t="n">
-        <v>777.9173246301411</v>
+        <v>1263.048612331801</v>
       </c>
       <c r="Y5" t="n">
-        <v>468.0555701794214</v>
+        <v>866.5579032524017</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653859</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>2049.194727088946</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1872.210915287855</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1662.147771966497</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1439.607770337564</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>840.8692298963695</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>541.5629141525311</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="W7" t="n">
-        <v>661.6122798674851</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X7" t="n">
-        <v>427.5319576504681</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.4198964671115</v>
+        <v>41.50324675633842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.406961705009</v>
+        <v>700.0857915436948</v>
       </c>
       <c r="C8" t="n">
-        <v>1725.23146020794</v>
+        <v>306.9102900466253</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,7 +4808,7 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
         <v>1304.804169167248</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.406961705009</v>
+        <v>1486.029105690037</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.406961705009</v>
+        <v>1096.576500623094</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.406961705009</v>
+        <v>700.0857915436948</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>156.9821715485457</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>476.7213176107721</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>960.2874035090854</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>53.0324735935059</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>276.1445347768625</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>53.0324735935059</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1452.67212504521</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1131.292898694334</v>
+        <v>813.6365687735843</v>
       </c>
       <c r="D11" t="n">
-        <v>817.6480450571955</v>
+        <v>499.9917151364459</v>
       </c>
       <c r="E11" t="n">
-        <v>486.8607953199337</v>
+        <v>499.9917151364459</v>
       </c>
       <c r="F11" t="n">
-        <v>486.8607953199337</v>
+        <v>499.9917151364459</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527723</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543618</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610413</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M12" t="n">
-        <v>1084.690231197904</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.5573325675165</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="C13" t="n">
-        <v>303.5573325675165</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675165</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915621</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689341</v>
+        <v>530.3256286689344</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689341</v>
+        <v>368.0415815981114</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.0098426317713</v>
+        <v>216.7257955609486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1835.7043909011</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C14" t="n">
-        <v>1514.325164550225</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="D14" t="n">
-        <v>1200.680310913086</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="E14" t="n">
-        <v>869.8930611758245</v>
+        <v>804.2285453871989</v>
       </c>
       <c r="F14" t="n">
-        <v>524.7948978519964</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G14" t="n">
-        <v>183.4284174861933</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.753625320257</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.097295399508</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2164.402861466303</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.6503970551458</v>
+        <v>655.0952099420613</v>
       </c>
       <c r="C16" t="n">
-        <v>389.2415542673289</v>
+        <v>556.6863671542444</v>
       </c>
       <c r="D16" t="n">
-        <v>305.4047163160375</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160375</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752043</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,46 +5440,46 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="V16" t="n">
-        <v>763.3461876710763</v>
+        <v>905.7825322771348</v>
       </c>
       <c r="W16" t="n">
-        <v>763.3461876710763</v>
+        <v>905.7825322771348</v>
       </c>
       <c r="X16" t="n">
-        <v>601.0621406002533</v>
+        <v>768.5069534871686</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.0621406002533</v>
+        <v>768.5069534871686</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1319.055322752795</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924321</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838017</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573995</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>207.7175872278004</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>691.2836731261136</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1319.055322752795</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446702</v>
+        <v>278.5901810446707</v>
       </c>
       <c r="L25" t="n">
-        <v>442.71782091847</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P25" t="n">
         <v>1094.77996610623</v>
@@ -6172,25 +6172,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958346</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343937</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958355</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6543,22 +6543,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>218.9633184712348</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>702.529404369548</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1330.301053996229</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640371</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185692</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464168</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235819</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873281</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.34435976561</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>102.254681251447</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>102.254681251447</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>585.8207671497603</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188142</v>
+        <v>575.8353109291595</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>759.0249449603687</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128482</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,22 +7330,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7403,25 +7403,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7448,10 +7448,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,13 +7497,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7561,31 +7561,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7807,16 +7807,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
         <v>969.3241577214669</v>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>217.3784717737104</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>640.3852542562157</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,19 +8055,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>452.3477250226163</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>399.6446499995785</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8076,7 +8076,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>210.7551798924868</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>559.646135768136</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562852</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>458.3732307488505</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,10 +8456,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>363.2059172909298</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>193.2214284919212</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>467.0304465710374</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>410.5599720504884</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>491.4748860273814</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>436.3426582800314</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9650,7 +9650,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>122.408528569654</v>
+        <v>124.6469814435369</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9729,10 +9729,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10191,25 +10191,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>122.4085285696537</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>117.4945034435374</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,25 +10665,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,16 +11145,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>233.0979055006551</v>
+        <v>154.2228615385798</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.57964114604409</v>
+        <v>19.90219364595259</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>260.5510146246525</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>129.6677106501853</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>21.27156775871894</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>24.75838359804816</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1291477.020424394</v>
+        <v>1289672.377583113</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1291477.020424394</v>
+        <v>1289672.377583113</v>
       </c>
     </row>
     <row r="4">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867138</v>
       </c>
       <c r="C2" t="n">
         <v>36066.43561867136</v>
       </c>
       <c r="D2" t="n">
-        <v>36066.43561867137</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="E2" t="n">
         <v>31871.80468488013</v>
       </c>
       <c r="F2" t="n">
-        <v>31871.80468488012</v>
+        <v>31871.80468488013</v>
       </c>
       <c r="G2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="H2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867132</v>
       </c>
       <c r="I2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867133</v>
       </c>
       <c r="J2" t="n">
-        <v>36066.43561867128</v>
+        <v>36066.4356186713</v>
       </c>
       <c r="K2" t="n">
         <v>36066.43561867128</v>
       </c>
       <c r="L2" t="n">
-        <v>36066.43561867133</v>
+        <v>36066.43561867135</v>
       </c>
       <c r="M2" t="n">
         <v>36066.43561867136</v>
@@ -26350,7 +26350,7 @@
         <v>36066.43561867136</v>
       </c>
       <c r="O2" t="n">
-        <v>36066.43561867136</v>
+        <v>36066.43561867134</v>
       </c>
       <c r="P2" t="n">
         <v>36066.43561867136</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668187</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445247.1264270775</v>
+        <v>-440294.1329990224</v>
       </c>
       <c r="C6" t="n">
-        <v>-263042.1781352217</v>
+        <v>-266435.4759649674</v>
       </c>
       <c r="D6" t="n">
-        <v>-271363.0185207913</v>
+        <v>-279099.3077441829</v>
       </c>
       <c r="E6" t="n">
-        <v>-284947.029965683</v>
+        <v>-285156.7615123727</v>
       </c>
       <c r="F6" t="n">
-        <v>-172824.4684916385</v>
+        <v>-173034.2000383281</v>
       </c>
       <c r="G6" t="n">
-        <v>-268797.8292017906</v>
+        <v>-268797.8292017904</v>
       </c>
       <c r="H6" t="n">
         <v>-221372.5036651086</v>
@@ -26543,22 +26543,22 @@
         <v>-221372.5036651086</v>
       </c>
       <c r="J6" t="n">
-        <v>-434414.4212623942</v>
+        <v>-427898.136107821</v>
       </c>
       <c r="K6" t="n">
         <v>-227612.2720678916</v>
       </c>
       <c r="L6" t="n">
-        <v>-282794.8610025128</v>
+        <v>-286843.6982129849</v>
       </c>
       <c r="M6" t="n">
-        <v>-263573.3331247316</v>
+        <v>-264625.0281359198</v>
       </c>
       <c r="N6" t="n">
         <v>-221372.5036651086</v>
       </c>
       <c r="O6" t="n">
-        <v>-249140.1977078798</v>
+        <v>-249140.1977078799</v>
       </c>
       <c r="P6" t="n">
         <v>-221372.5036651086</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551336</v>
+        <v>17.58004954287432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>80.76845496230928</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>294.7993126167289</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863171</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>16.89416248525004</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27546,10 +27546,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27585,22 +27585,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>50.90532706474937</v>
+        <v>41.08039474399195</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>202.6056746454109</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.76266508239229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>107.8734357084349</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862709</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.04094380275527</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>7.87290172036063</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>146.3419927920669</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>122.5199167429459</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>162.840758297628</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28059,10 +28059,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71049010668865</v>
+        <v>35.71049010668915</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901118</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,7 +29545,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29554,7 +29554,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893135</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844045137</v>
+        <v>76.79385455031189</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>35.71049010668847</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5.636002634529063</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30639,13 +30639,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>5.636002634529063</v>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>74.32006859447308</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>490.6602026584885</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>359.9606029733043</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>314.2725371454118</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>93.07534195014065</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>406.3979660376443</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069732</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>373.0011178946838</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,10 +35176,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>209.9577475604382</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>110.7769711585879</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>381.6583337168707</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>318.1728500011765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>343.9555362307195</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094888</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>32.81159323632068</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36449,10 +36449,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934986</v>
+        <v>118.3721477934991</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907908</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215727</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,7 +36841,7 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039233</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36850,7 +36850,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36911,25 +36911,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>32.81159323632036</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144197</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155191</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537678</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>35.050046110204</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932433</v>
+        <v>264.9671660031038</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37385,25 +37385,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>200.0587396437673</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37713,10 +37713,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37865,16 +37865,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>126.7230387724872</v>
